--- a/Documentation/Discip_Sub.xlsx
+++ b/Documentation/Discip_Sub.xlsx
@@ -406,7 +406,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -457,9 +457,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -621,7 +618,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.000000</c:v>
+                  <c:v>7.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,9 +2380,9 @@
     <col min="3" max="3" width="18.2344" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.1016" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5312" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.0625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="5.4375" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="26.25" style="20" customWidth="1"/>
+    <col min="6" max="6" width="28.0625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="5.4375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="26.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="117.95" customHeight="1"/>
@@ -2542,55 +2539,57 @@
       <c r="A13" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" t="s" s="18">
+      <c r="B13" t="s" s="17">
         <v>6</v>
       </c>
-      <c r="D13" t="s" s="18">
+      <c r="C13" t="s" s="17">
         <v>6</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="D13" t="s" s="17">
+        <v>6</v>
+      </c>
+      <c r="E13" s="18"/>
     </row>
     <row r="15" ht="16.8" customHeight="1">
-      <c r="F15" t="s" s="21">
+      <c r="F15" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="G15" t="s" s="22">
+      <c r="G15" t="s" s="21">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="22.75" customHeight="1">
-      <c r="F16" t="s" s="23">
+      <c r="F16" t="s" s="22">
         <v>1</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <f>COUNTIF(B3:B13,"X")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
-      <c r="F17" t="s" s="25">
+      <c r="F17" t="s" s="24">
         <v>2</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <f>COUNTIF(C3:C13,"X")</f>
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1">
-      <c r="F18" t="s" s="25">
+      <c r="F18" t="s" s="24">
         <v>3</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <f>COUNTIF(D3:D13,"X")</f>
         <v>8</v>
       </c>
     </row>
     <row r="19" ht="22.6" customHeight="1">
-      <c r="F19" t="s" s="27">
+      <c r="F19" t="s" s="26">
         <v>4</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <f>COUNTIF(E3:E13,"X")</f>
         <v>5</v>
       </c>

--- a/Documentation/Discip_Sub.xlsx
+++ b/Documentation/Discip_Sub.xlsx
@@ -440,13 +440,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -768,7 +768,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,8 +949,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="1.75"/>
+        <c:minorUnit val="0.875"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2441,9 +2441,7 @@
       <c r="C5" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="6">
-        <v>6</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
@@ -2454,9 +2452,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" t="s" s="9">
-        <v>6</v>
-      </c>
+      <c r="D6" s="12"/>
       <c r="E6" t="s" s="10">
         <v>6</v>
       </c>
@@ -2468,8 +2464,8 @@
       <c r="B7" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
@@ -2493,8 +2489,8 @@
       <c r="A9" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" t="s" s="6">
         <v>6</v>
       </c>
@@ -2508,15 +2504,15 @@
         <v>6</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" t="s" s="6">
         <v>6</v>
       </c>
@@ -2528,9 +2524,9 @@
       <c r="A12" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="E12" t="s" s="10">
         <v>6</v>
       </c>
@@ -2582,7 +2578,7 @@
       </c>
       <c r="G18" s="25">
         <f>COUNTIF(D3:D13,"X")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" ht="22.6" customHeight="1">
